--- a/specifics/Modulverlauf.xlsx
+++ b/specifics/Modulverlauf.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebastiansaueruser/github-repos/thesis/specifics/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebastiansaueruser/github-repos/thesisseminar/specifics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB6FE58D-FC7A-BA4C-B8C8-120B474A77A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D02C233-95FE-E94E-A410-746914DED2CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1780" yWindow="500" windowWidth="19200" windowHeight="21100" xr2:uid="{B4BA407F-7EF6-F641-926D-2394B79BC202}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="42">
   <si>
     <t>Blockwoche: Kein regulärer Unterricht</t>
   </si>
@@ -106,15 +106,6 @@
     <t>Bonusleistung</t>
   </si>
   <si>
-    <t>Bonus 1</t>
-  </si>
-  <si>
-    <t>Bonus 2</t>
-  </si>
-  <si>
-    <t>Bonus 3</t>
-  </si>
-  <si>
     <t>Coaching</t>
   </si>
   <si>
@@ -125,6 +116,52 @@
   </si>
   <si>
     <t>nr</t>
+  </si>
+  <si>
+    <t>Volltexte beziehen</t>
+  </si>
+  <si>
+    <t>Qualitative Forschungsmethoden mit Schwerpunkt Grounded Theory</t>
+  </si>
+  <si>
+    <t>Quantitative Forschungsmethoden im Überblick</t>
+  </si>
+  <si>
+    <t>Probe-Kolloquium</t>
+  </si>
+  <si>
+    <t>Feiertag: kein Unterricht</t>
+  </si>
+  <si>
+    <t>Best Practises Literaturverwaltung;
+Grundlagen des systematischen Literaturreviews</t>
+  </si>
+  <si>
+    <t>Beispiel für eine gute Abschlussarbeit</t>
+  </si>
+  <si>
+    <t>activity_long</t>
+  </si>
+  <si>
+    <t>entfällt</t>
+  </si>
+  <si>
+    <t>Volltexte</t>
+  </si>
+  <si>
+    <t>Reviews</t>
+  </si>
+  <si>
+    <t>Quali</t>
+  </si>
+  <si>
+    <t>Quanti</t>
+  </si>
+  <si>
+    <t>Beispielthesis</t>
+  </si>
+  <si>
+    <t>Prüfung</t>
   </si>
 </sst>
 </file>
@@ -168,11 +205,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -487,10 +527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CCF7A24-492F-3C40-B58F-80483A4B8330}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -500,9 +540,9 @@
     <col min="4" max="4" width="45.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>17</v>
@@ -511,10 +551,13 @@
         <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -522,13 +565,16 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+      <c r="E2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -536,13 +582,16 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+      <c r="E3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -550,13 +599,16 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -564,13 +616,16 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+      <c r="E5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -578,13 +633,16 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+      <c r="E6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -592,13 +650,16 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+      <c r="E7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -606,13 +667,16 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+      <c r="E8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -625,8 +689,11 @@
       <c r="D9" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -637,10 +704,13 @@
         <v>22</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+      <c r="E10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -651,24 +721,30 @@
         <v>22</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+      <c r="E11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
         <v>22</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+      <c r="E12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -676,13 +752,16 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+      <c r="E13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -695,8 +774,11 @@
       <c r="D14" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -709,8 +791,11 @@
       <c r="D15" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -718,13 +803,16 @@
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+      <c r="E16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -736,6 +824,9 @@
       </c>
       <c r="D17" t="s">
         <v>21</v>
+      </c>
+      <c r="E17" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
